--- a/python scripts/image_statistics.xlsx
+++ b/python scripts/image_statistics.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -792,22 +792,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -819,22 +819,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -873,22 +873,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -981,22 +981,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1035,22 +1035,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1062,22 +1062,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1116,22 +1116,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1148,12 +1148,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1332,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>

--- a/python scripts/image_statistics.xlsx
+++ b/python scripts/image_statistics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,26 @@
           <t>Not CS Correct Ratio</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Female CS Correct Ratio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Female Not CS Correct Ratio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Male CS Correct Ratio</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Male Not CS Correct Ratio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +506,26 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,22 +535,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -540,6 +600,26 @@
           <t>0.00%</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,12 +629,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -564,7 +644,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -576,22 +676,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -608,7 +728,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -618,7 +738,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -630,22 +770,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -662,17 +822,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -684,22 +864,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -711,22 +911,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -738,22 +958,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -770,17 +1010,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -797,15 +1057,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -824,17 +1104,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -846,12 +1146,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -861,7 +1161,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -873,22 +1193,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -900,22 +1240,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -927,7 +1287,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -941,6 +1301,26 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -954,12 +1334,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -968,6 +1348,26 @@
         </is>
       </c>
       <c r="E20" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -981,22 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1428,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1023,7 +1443,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1035,22 +1475,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1522,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1077,7 +1537,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1089,12 +1569,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1104,7 +1584,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1116,22 +1616,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1143,20 +1663,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -1170,12 +1710,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1185,7 +1725,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1197,22 +1757,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1224,12 +1804,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1239,7 +1819,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1851,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1266,7 +1866,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1898,42 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>33.33%</t>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1945,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1320,7 +1960,27 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1992,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>33.33%</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>

--- a/python scripts/image_statistics.xlsx
+++ b/python scripts/image_statistics.xlsx
@@ -535,42 +535,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.57%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -582,27 +582,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.57%</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -676,42 +676,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>80.00%</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>57.14%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -770,42 +770,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -817,27 +817,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -864,42 +864,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>57.14%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -911,42 +911,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>80.00%</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.71%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -958,37 +958,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>80.00%</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1005,42 +1005,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>14.29%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1099,27 +1099,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>62.50%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>22.22%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1146,42 +1146,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1193,42 +1193,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1240,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1287,42 +1287,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>14.29%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>28.57%</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1428,42 +1428,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>57.14%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1475,22 +1475,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1522,27 +1522,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>62.50%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1569,34 +1569,34 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>0.00%</t>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1616,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>80.00%</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1663,42 +1663,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>14.29%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1710,37 +1710,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1757,42 +1757,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>20.00%</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1804,27 +1804,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>40.00%</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>37.50%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>44.44%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1851,42 +1851,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>42.86%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1898,37 +1898,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>80.00%</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1945,37 +1945,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>80.00%</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>71.43%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>80.00%</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1992,37 +1992,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>60.00%</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>57.14%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">

--- a/python scripts/image_statistics.xlsx
+++ b/python scripts/image_statistics.xlsx
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>54.55</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="F3" t="n">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="H3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>60</v>
@@ -549,25 +549,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>22.22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>57.14</v>
+        <v>55.56</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>18.18</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
         <v>20</v>
@@ -583,22 +583,22 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>45.45</v>
       </c>
       <c r="D5" t="n">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
         <v>40</v>
@@ -611,25 +611,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>27.27</v>
       </c>
       <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="F6" t="n">
         <v>25</v>
       </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H6" t="n">
         <v>33.33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
       </c>
       <c r="I6" t="n">
         <v>20</v>
@@ -642,19 +642,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="F7" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -673,25 +673,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>72.73</v>
       </c>
       <c r="D8" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" t="n">
         <v>33.33</v>
       </c>
-      <c r="G8" t="n">
-        <v>40</v>
-      </c>
       <c r="H8" t="n">
-        <v>80</v>
+        <v>83.33</v>
       </c>
       <c r="I8" t="n">
         <v>60</v>
@@ -704,25 +704,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>54.55</v>
       </c>
       <c r="D9" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="F9" t="n">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>60</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70</v>
+      </c>
+      <c r="E10" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="F10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>90</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>60</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="D11" t="n">
         <v>80</v>
       </c>
-      <c r="D11" t="n">
-        <v>87.5</v>
-      </c>
       <c r="E11" t="n">
-        <v>70</v>
+        <v>72.73</v>
       </c>
       <c r="F11" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>83.33</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -800,22 +800,22 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>54.55</v>
       </c>
       <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="F12" t="n">
         <v>25</v>
       </c>
-      <c r="E12" t="n">
-        <v>70</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>80</v>
+        <v>66.67</v>
       </c>
       <c r="H12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12" t="n">
         <v>60</v>
@@ -828,25 +828,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>72.73</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="F13" t="n">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="I13" t="n">
         <v>80</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>45.45</v>
       </c>
       <c r="D14" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>9.09</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="I14" t="n">
         <v>20</v>
@@ -890,25 +890,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="D15" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="F15" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I15" t="n">
         <v>40</v>
@@ -924,22 +924,22 @@
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>45.45</v>
       </c>
       <c r="D16" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="F16" t="n">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I16" t="n">
         <v>40</v>
@@ -952,25 +952,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="D17" t="n">
         <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>45.45</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="H17" t="n">
-        <v>80</v>
+        <v>66.67</v>
       </c>
       <c r="I17" t="n">
         <v>20</v>
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C18" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="D18" t="n">
         <v>70</v>
       </c>
-      <c r="D18" t="n">
-        <v>62.5</v>
-      </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="F18" t="n">
+        <v>75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" t="n">
         <v>66.67</v>
-      </c>
-      <c r="G18" t="n">
-        <v>40</v>
-      </c>
-      <c r="H18" t="n">
-        <v>60</v>
       </c>
       <c r="I18" t="n">
         <v>80</v>
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="D19" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>27.27</v>
       </c>
       <c r="F19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" t="n">
         <v>33.33</v>
       </c>
-      <c r="G19" t="n">
-        <v>20</v>
-      </c>
       <c r="H19" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="I19" t="n">
         <v>20</v>
@@ -1045,25 +1045,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="D20" t="n">
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="F20" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" t="n">
         <v>33.33</v>
       </c>
-      <c r="G20" t="n">
-        <v>40</v>
-      </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I20" t="n">
         <v>20</v>
@@ -1076,25 +1076,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.5</v>
+        <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>70</v>
+        <v>72.73</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="F21" t="n">
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="I21" t="n">
         <v>80</v>
@@ -1110,22 +1110,22 @@
         <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="D22" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>54.55</v>
       </c>
       <c r="F22" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" t="n">
         <v>66.67</v>
-      </c>
-      <c r="G22" t="n">
-        <v>40</v>
-      </c>
-      <c r="H22" t="n">
-        <v>60</v>
       </c>
       <c r="I22" t="n">
         <v>60</v>
@@ -1138,25 +1138,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="C23" t="n">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="D23" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>54.55</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="I23" t="n">
         <v>60</v>
@@ -1169,25 +1169,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="D24" t="n">
         <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>54.55</v>
       </c>
       <c r="F24" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H24" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="I24" t="n">
         <v>60</v>
@@ -1200,22 +1200,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="D25" t="n">
         <v>20</v>
       </c>
-      <c r="D25" t="n">
-        <v>25</v>
-      </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="F25" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1231,25 +1231,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.5</v>
+        <v>80</v>
       </c>
       <c r="C26" t="n">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="D26" t="n">
+        <v>70</v>
+      </c>
+      <c r="E26" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="F26" t="n">
         <v>75</v>
       </c>
-      <c r="E26" t="n">
-        <v>70</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
       <c r="G26" t="n">
-        <v>80</v>
+        <v>83.33</v>
       </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="I26" t="n">
         <v>60</v>
@@ -1262,25 +1262,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="D27" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="F27" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="H27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I27" t="n">
         <v>20</v>
@@ -1293,25 +1293,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>36.36</v>
       </c>
       <c r="D28" t="n">
         <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G28" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="I28" t="n">
         <v>40</v>
@@ -1324,25 +1324,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="F29" t="n">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="I29" t="n">
         <v>60</v>
@@ -1355,25 +1355,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>45.45</v>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>45.45</v>
       </c>
       <c r="F30" t="n">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="G30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
         <v>40</v>
@@ -1386,25 +1386,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="D31" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="F31" t="n">
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="I31" t="n">
         <v>40</v>
@@ -1417,25 +1417,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>36.36</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>63.64</v>
       </c>
       <c r="F32" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="G32" t="n">
-        <v>80</v>
+        <v>83.33</v>
       </c>
       <c r="H32" t="n">
-        <v>40</v>
+        <v>33.33</v>
       </c>
       <c r="I32" t="n">
         <v>40</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>27.27</v>
       </c>
       <c r="D33" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="F33" t="n">
         <v>25</v>
       </c>
-      <c r="E33" t="n">
-        <v>60</v>
-      </c>
-      <c r="F33" t="n">
-        <v>33.33</v>
-      </c>
       <c r="G33" t="n">
-        <v>80</v>
+        <v>66.67</v>
       </c>
       <c r="H33" t="n">
-        <v>20</v>
+        <v>16.67</v>
       </c>
       <c r="I33" t="n">
         <v>40</v>
@@ -1479,25 +1479,25 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="F34" t="n">
         <v>75</v>
       </c>
-      <c r="C34" t="n">
-        <v>40</v>
-      </c>
-      <c r="D34" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>50</v>
-      </c>
-      <c r="F34" t="n">
-        <v>100</v>
-      </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="H34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I34" t="n">
         <v>40</v>
@@ -1510,25 +1510,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44.32</v>
+        <v>44.24</v>
       </c>
       <c r="C35" t="n">
-        <v>46.13</v>
+        <v>47.16</v>
       </c>
       <c r="D35" t="n">
-        <v>48.7</v>
+        <v>49.87</v>
       </c>
       <c r="E35" t="n">
-        <v>42.73</v>
+        <v>42.15</v>
       </c>
       <c r="F35" t="n">
         <v>51.52</v>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>39.39</v>
       </c>
       <c r="H35" t="n">
-        <v>46.82</v>
+        <v>48.59</v>
       </c>
       <c r="I35" t="n">
         <v>45.45</v>

--- a/python scripts/image_statistics.xlsx
+++ b/python scripts/image_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,82 +483,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ai-no-loss-2.png</t>
+          <t>ai-no-loss1.png</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ai-no-loss1.png</t>
+          <t>ai-no-loss2.png</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>54.55</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>55.56</v>
       </c>
       <c r="E3" t="n">
-        <v>36.36</v>
+        <v>18.18</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
         <v>16.67</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ai-no-loss2.png</t>
+          <t>ai-no-loss3.png</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>55.56</v>
+        <v>77.78</v>
       </c>
       <c r="E4" t="n">
-        <v>18.18</v>
+        <v>27.27</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
@@ -567,131 +567,131 @@
         <v>16.67</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ai-no-loss3.png</t>
+          <t>ai-no-loss4.png</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>50</v>
       </c>
       <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="E5" t="n">
         <v>45.45</v>
       </c>
-      <c r="D5" t="n">
-        <v>70</v>
-      </c>
-      <c r="E5" t="n">
-        <v>27.27</v>
-      </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>16.67</v>
+        <v>66.67</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ai-no-loss4.png</t>
+          <t>ai-no-reward1.png</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>27.27</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>11.11</v>
       </c>
       <c r="E6" t="n">
-        <v>45.45</v>
+        <v>18.18</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ai-no-reward1.png</t>
+          <t>ai-no-reward2.png</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>18.18</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>55.56</v>
       </c>
       <c r="E7" t="n">
-        <v>18.18</v>
+        <v>45.45</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ai-no-reward2.png</t>
+          <t>ai-no-reward3.png</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>72.73</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="E8" t="n">
-        <v>45.45</v>
+        <v>27.27</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>83.33</v>
+        <v>60</v>
       </c>
       <c r="I8" t="n">
         <v>60</v>
@@ -700,91 +700,91 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ai-no-reward3.png</t>
+          <t>ai-photo-loss1.png</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>54.55</v>
+        <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="E9" t="n">
-        <v>27.27</v>
+        <v>63.64</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ai-photo-loss1.png</t>
+          <t>ai-photo-loss2.png</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>90.91</v>
+        <v>80</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>77.78</v>
       </c>
       <c r="E10" t="n">
-        <v>63.64</v>
+        <v>72.73</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ai-photo-loss2.png</t>
+          <t>ai-photo-reward1.png</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>81.81999999999999</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>44.44</v>
       </c>
       <c r="E11" t="n">
-        <v>72.73</v>
+        <v>63.64</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I11" t="n">
         <v>60</v>
@@ -793,122 +793,122 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ai-photo-reward1.png</t>
+          <t>ai-photo-reward2.png</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>54.55</v>
+        <v>70</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>55.56</v>
       </c>
       <c r="E12" t="n">
-        <v>63.64</v>
+        <v>36.36</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ai-photo-reward2.png</t>
+          <t>ai-photo-reward3.png</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>72.73</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>33.33</v>
       </c>
       <c r="E13" t="n">
-        <v>36.36</v>
+        <v>9.09</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="I13" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ai-photo-reward3.png</t>
+          <t>ai-photo-reward4.png</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>44.44</v>
       </c>
       <c r="E14" t="n">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ai-photo-reward4.png</t>
+          <t>ai-photo-reward5.png</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="E15" t="n">
         <v>45.45</v>
       </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18.18</v>
-      </c>
       <c r="F15" t="n">
         <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
         <v>40</v>
@@ -917,110 +917,110 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ai-photo-reward5.png</t>
+          <t>ai-photo-reward6.png</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>44.44</v>
       </c>
       <c r="E16" t="n">
         <v>45.45</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ai-photo-reward6.png</t>
+          <t>ai-photo-reward7.png</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>45.45</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="E17" t="n">
-        <v>45.45</v>
+        <v>63.64</v>
       </c>
       <c r="F17" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G17" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ai-photo-reward7.png</t>
+          <t>r-no-loss1.png</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>72.73</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>44.44</v>
       </c>
       <c r="E18" t="n">
-        <v>63.64</v>
+        <v>27.27</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="H18" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>r-no-loss1.png</t>
+          <t>r-no-loss2.png</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>44.44</v>
       </c>
       <c r="E19" t="n">
         <v>27.27</v>
@@ -1032,7 +1032,7 @@
         <v>33.33</v>
       </c>
       <c r="H19" t="n">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="I19" t="n">
         <v>20</v>
@@ -1041,91 +1041,91 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>r-no-loss2.png</t>
+          <t>r-no-loss3.png</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>36.36</v>
+        <v>70</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>77.78</v>
       </c>
       <c r="E20" t="n">
-        <v>27.27</v>
+        <v>63.64</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>33.33</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>r-no-loss3.png</t>
+          <t>r-no-loss4.png</t>
         </is>
       </c>
       <c r="B21" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" t="n">
         <v>70</v>
       </c>
-      <c r="C21" t="n">
-        <v>72.73</v>
-      </c>
       <c r="D21" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50</v>
+      </c>
+      <c r="H21" t="n">
         <v>80</v>
       </c>
-      <c r="E21" t="n">
-        <v>63.64</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>50</v>
-      </c>
-      <c r="H21" t="n">
-        <v>66.67</v>
-      </c>
       <c r="I21" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>r-no-loss4.png</t>
+          <t>r-no-reward1.png</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
-        <v>63.64</v>
+        <v>60</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>44.44</v>
       </c>
       <c r="E22" t="n">
         <v>54.55</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G22" t="n">
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="I22" t="n">
         <v>60</v>
@@ -1134,17 +1134,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>r-no-reward1.png</t>
+          <t>r-no-reward2.png</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>40</v>
       </c>
       <c r="C23" t="n">
-        <v>63.64</v>
+        <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>44.44</v>
       </c>
       <c r="E23" t="n">
         <v>54.55</v>
@@ -1156,7 +1156,7 @@
         <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="I23" t="n">
         <v>60</v>
@@ -1165,215 +1165,215 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>r-no-reward2.png</t>
+          <t>r-no-reward3.png</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>63.64</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>22.22</v>
       </c>
       <c r="E24" t="n">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
         <v>50</v>
       </c>
       <c r="H24" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>r-no-reward3.png</t>
+          <t>r-no-reward4.png</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C25" t="n">
-        <v>18.18</v>
+        <v>60</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>66.67</v>
       </c>
       <c r="E25" t="n">
-        <v>45.45</v>
+        <v>72.73</v>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>r-no-reward4.png</t>
+          <t>r-no-reward5.png</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>63.64</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>44.44</v>
       </c>
       <c r="E26" t="n">
-        <v>72.73</v>
+        <v>18.18</v>
       </c>
       <c r="F26" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>83.33</v>
+        <v>16.67</v>
       </c>
       <c r="H26" t="n">
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="I26" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>r-no-reward5.png</t>
+          <t>r-photo-loss1.png</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D27" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="E27" t="n">
         <v>36.36</v>
       </c>
-      <c r="D27" t="n">
-        <v>50</v>
-      </c>
-      <c r="E27" t="n">
-        <v>18.18</v>
-      </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G27" t="n">
-        <v>16.67</v>
+        <v>33.33</v>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>r-photo-loss1.png</t>
+          <t>r-photo-reward1.png</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>36.36</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="E28" t="n">
         <v>36.36</v>
       </c>
       <c r="F28" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>33.33</v>
+        <v>16.67</v>
       </c>
       <c r="H28" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>r-photo-reward1.png</t>
+          <t>r-photo-reward2.png</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>36.36</v>
+        <v>40</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>55.56</v>
       </c>
       <c r="E29" t="n">
-        <v>36.36</v>
+        <v>45.45</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G29" t="n">
-        <v>16.67</v>
+        <v>50</v>
       </c>
       <c r="H29" t="n">
-        <v>16.67</v>
+        <v>40</v>
       </c>
       <c r="I29" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>r-photo-reward2.png</t>
+          <t>r-photo-reward3.png</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C30" t="n">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="E30" t="n">
         <v>45.45</v>
       </c>
       <c r="F30" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
         <v>50</v>
       </c>
       <c r="H30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I30" t="n">
         <v>40</v>
@@ -1382,29 +1382,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>r-photo-reward3.png</t>
+          <t>r-photo-reward4.png</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>70</v>
       </c>
       <c r="C31" t="n">
-        <v>36.36</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>33.33</v>
       </c>
       <c r="E31" t="n">
-        <v>45.45</v>
+        <v>63.64</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="H31" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="I31" t="n">
         <v>40</v>
@@ -1413,29 +1413,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>r-photo-reward4.png</t>
+          <t>r-photo-reward5.png</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C32" t="n">
-        <v>36.36</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>11.11</v>
       </c>
       <c r="E32" t="n">
-        <v>63.64</v>
+        <v>54.55</v>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>83.33</v>
+        <v>66.67</v>
       </c>
       <c r="H32" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>40</v>
@@ -1444,29 +1444,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>r-photo-reward5.png</t>
+          <t>r-photo-reward6.png</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>27.27</v>
+        <v>40</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>55.56</v>
       </c>
       <c r="E33" t="n">
         <v>54.55</v>
       </c>
       <c r="F33" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G33" t="n">
         <v>66.67</v>
       </c>
       <c r="H33" t="n">
-        <v>16.67</v>
+        <v>40</v>
       </c>
       <c r="I33" t="n">
         <v>40</v>
@@ -1475,63 +1475,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>r-photo-reward6.png</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45.62</v>
       </c>
       <c r="C34" t="n">
-        <v>45.45</v>
+        <v>47.5</v>
       </c>
       <c r="D34" t="n">
-        <v>60</v>
+        <v>50.35</v>
       </c>
       <c r="E34" t="n">
-        <v>54.55</v>
+        <v>43.47</v>
       </c>
       <c r="F34" t="n">
-        <v>75</v>
+        <v>53.12</v>
       </c>
       <c r="G34" t="n">
-        <v>66.67</v>
+        <v>40.63</v>
       </c>
       <c r="H34" t="n">
-        <v>50</v>
+        <v>48.12</v>
       </c>
       <c r="I34" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>44.24</v>
-      </c>
-      <c r="C35" t="n">
-        <v>47.16</v>
-      </c>
-      <c r="D35" t="n">
-        <v>49.87</v>
-      </c>
-      <c r="E35" t="n">
-        <v>42.15</v>
-      </c>
-      <c r="F35" t="n">
-        <v>51.52</v>
-      </c>
-      <c r="G35" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="H35" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="I35" t="n">
-        <v>45.45</v>
+        <v>46.88</v>
       </c>
     </row>
   </sheetData>
